--- a/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5483425473144.554</v>
+        <v>5774610794300.477</v>
       </c>
       <c r="C3" t="n">
-        <v>5554045279188.309</v>
+        <v>5512094594532.208</v>
       </c>
       <c r="D3" t="n">
-        <v>5686746202172.542</v>
+        <v>5771714164403.296</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6624269093158.275</v>
+        <v>6510579461206.338</v>
       </c>
       <c r="C4" t="n">
-        <v>6524617113563.508</v>
+        <v>6564737167697.949</v>
       </c>
       <c r="D4" t="n">
-        <v>6574430888113.523</v>
+        <v>6559006739778.191</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28971158486074.55</v>
+        <v>39022426866954.85</v>
       </c>
       <c r="C5" t="n">
-        <v>29196316394973.93</v>
+        <v>28172922701987.78</v>
       </c>
       <c r="D5" t="n">
-        <v>32194606867975.05</v>
+        <v>31868181775500.77</v>
       </c>
     </row>
   </sheetData>
